--- a/data/suma_rm.xlsx
+++ b/data/suma_rm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8441C5F-706C-B542-9AE2-FB6EA4C40377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB0AF83-8B70-B141-AD5D-09E530072CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34880" yWindow="3620" windowWidth="27640" windowHeight="15760" xr2:uid="{DB585252-26E6-2940-B6EB-5C9FED18AE63}"/>
+    <workbookView xWindow="36040" yWindow="5440" windowWidth="27640" windowHeight="15760" xr2:uid="{DB585252-26E6-2940-B6EB-5C9FED18AE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004ADAFE-0DA6-434B-838A-8837DC6837B4}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -423,6 +423,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/suma_rm.xlsx
+++ b/data/suma_rm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB0AF83-8B70-B141-AD5D-09E530072CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0534F623-D889-A048-B8DD-6E0057A3ED0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36040" yWindow="5440" windowWidth="27640" windowHeight="15760" xr2:uid="{DB585252-26E6-2940-B6EB-5C9FED18AE63}"/>
+    <workbookView xWindow="34800" yWindow="4600" windowWidth="27640" windowHeight="15760" xr2:uid="{DB585252-26E6-2940-B6EB-5C9FED18AE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004ADAFE-0DA6-434B-838A-8837DC6837B4}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -434,6 +434,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
